--- a/Code/Results/Cases/Case_5_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_213/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015797379279255</v>
+        <v>1.038640994678112</v>
       </c>
       <c r="D2">
-        <v>1.034831724017685</v>
+        <v>1.046467931157318</v>
       </c>
       <c r="E2">
-        <v>1.020067215470331</v>
+        <v>1.037277884794242</v>
       </c>
       <c r="F2">
-        <v>1.039535260287281</v>
+        <v>1.05554291047988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054770882932433</v>
+        <v>1.044069507245682</v>
       </c>
       <c r="J2">
-        <v>1.037515645707205</v>
+        <v>1.043737331682886</v>
       </c>
       <c r="K2">
-        <v>1.045826223115898</v>
+        <v>1.04923328360805</v>
       </c>
       <c r="L2">
-        <v>1.031253885725734</v>
+        <v>1.040069226611013</v>
       </c>
       <c r="M2">
-        <v>1.050469970578384</v>
+        <v>1.058283080269713</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019826135130163</v>
+        <v>1.039494528143958</v>
       </c>
       <c r="D3">
-        <v>1.037880245954268</v>
+        <v>1.047134865242459</v>
       </c>
       <c r="E3">
-        <v>1.023263943737866</v>
+        <v>1.038001261542631</v>
       </c>
       <c r="F3">
-        <v>1.043114698981193</v>
+        <v>1.056347585341504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056161282757563</v>
+        <v>1.044307145050531</v>
       </c>
       <c r="J3">
-        <v>1.039790533585053</v>
+        <v>1.044236222902161</v>
       </c>
       <c r="K3">
-        <v>1.04805034084848</v>
+        <v>1.049712242374992</v>
       </c>
       <c r="L3">
-        <v>1.033607565735314</v>
+        <v>1.040602606856677</v>
       </c>
       <c r="M3">
-        <v>1.053224110651605</v>
+        <v>1.058901239591474</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022384533855397</v>
+        <v>1.040047410332944</v>
       </c>
       <c r="D4">
-        <v>1.039818791472253</v>
+        <v>1.047566897909925</v>
       </c>
       <c r="E4">
-        <v>1.025299578818658</v>
+        <v>1.038470216357446</v>
       </c>
       <c r="F4">
-        <v>1.045392309619234</v>
+        <v>1.0568690870278</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057034834356276</v>
+        <v>1.044459910944364</v>
       </c>
       <c r="J4">
-        <v>1.041232470257453</v>
+        <v>1.044558964392123</v>
       </c>
       <c r="K4">
-        <v>1.04945926556885</v>
+        <v>1.050021958790645</v>
       </c>
       <c r="L4">
-        <v>1.03510195581001</v>
+        <v>1.040947950140412</v>
       </c>
       <c r="M4">
-        <v>1.054972099190378</v>
+        <v>1.059301396817266</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023448841821819</v>
+        <v>1.04027998141337</v>
       </c>
       <c r="D5">
-        <v>1.040625827218178</v>
+        <v>1.047748638014806</v>
       </c>
       <c r="E5">
-        <v>1.026147723490999</v>
+        <v>1.038667574257091</v>
       </c>
       <c r="F5">
-        <v>1.04634086283592</v>
+        <v>1.057088521517427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057395946310313</v>
+        <v>1.044523893106046</v>
       </c>
       <c r="J5">
-        <v>1.041831648732711</v>
+        <v>1.044694625813416</v>
       </c>
       <c r="K5">
-        <v>1.050044520217311</v>
+        <v>1.050152113925172</v>
       </c>
       <c r="L5">
-        <v>1.035723533989966</v>
+        <v>1.041093181513329</v>
       </c>
       <c r="M5">
-        <v>1.055698999759423</v>
+        <v>1.059469661278389</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023626894767481</v>
+        <v>1.04031903924992</v>
       </c>
       <c r="D6">
-        <v>1.040760873444174</v>
+        <v>1.047779159587002</v>
       </c>
       <c r="E6">
-        <v>1.026289689453076</v>
+        <v>1.038700723738194</v>
       </c>
       <c r="F6">
-        <v>1.046499611619878</v>
+        <v>1.057125376923871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057456222752914</v>
+        <v>1.044534621858596</v>
       </c>
       <c r="J6">
-        <v>1.041931847542006</v>
+        <v>1.044717402806023</v>
       </c>
       <c r="K6">
-        <v>1.050142378276744</v>
+        <v>1.050173964595776</v>
       </c>
       <c r="L6">
-        <v>1.035827514134713</v>
+        <v>1.041117569336995</v>
       </c>
       <c r="M6">
-        <v>1.055820589247598</v>
+        <v>1.059497915825776</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022398798898209</v>
+        <v>1.040050517413311</v>
       </c>
       <c r="D7">
-        <v>1.039829605988228</v>
+        <v>1.047569325886047</v>
       </c>
       <c r="E7">
-        <v>1.025310941475116</v>
+        <v>1.038472852643214</v>
       </c>
       <c r="F7">
-        <v>1.04540501906921</v>
+        <v>1.056872018357656</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057039683471146</v>
+        <v>1.044460766823637</v>
       </c>
       <c r="J7">
-        <v>1.041240503818783</v>
+        <v>1.044560777183318</v>
       </c>
       <c r="K7">
-        <v>1.049467113267789</v>
+        <v>1.050023698126634</v>
       </c>
       <c r="L7">
-        <v>1.035110287313222</v>
+        <v>1.040949890538076</v>
       </c>
       <c r="M7">
-        <v>1.054981843044682</v>
+        <v>1.059303645026461</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017169176663745</v>
+        <v>1.038929327403362</v>
       </c>
       <c r="D8">
-        <v>1.035869174452343</v>
+        <v>1.046693223857837</v>
       </c>
       <c r="E8">
-        <v>1.021154511112075</v>
+        <v>1.037522169722768</v>
       </c>
       <c r="F8">
-        <v>1.04075309076348</v>
+        <v>1.055814682513331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055246263421494</v>
+        <v>1.044150024959647</v>
       </c>
       <c r="J8">
-        <v>1.038290795442173</v>
+        <v>1.043905948967054</v>
       </c>
       <c r="K8">
-        <v>1.046584243563029</v>
+        <v>1.049395190993966</v>
       </c>
       <c r="L8">
-        <v>1.032055357117043</v>
+        <v>1.040249440538164</v>
       </c>
       <c r="M8">
-        <v>1.051407943528457</v>
+        <v>1.058491954623183</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007565546484141</v>
+        <v>1.036958228503736</v>
       </c>
       <c r="D9">
-        <v>1.028619076632043</v>
+        <v>1.045153186975931</v>
       </c>
       <c r="E9">
-        <v>1.013567803969389</v>
+        <v>1.035853776398905</v>
       </c>
       <c r="F9">
-        <v>1.032248088887221</v>
+        <v>1.053957910967526</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051879929012486</v>
+        <v>1.043594822964747</v>
       </c>
       <c r="J9">
-        <v>1.032853945604891</v>
+        <v>1.042751543562724</v>
       </c>
       <c r="K9">
-        <v>1.041264287620443</v>
+        <v>1.048286192167221</v>
       </c>
       <c r="L9">
-        <v>1.026444522620659</v>
+        <v>1.039016831250581</v>
       </c>
       <c r="M9">
-        <v>1.044838766425153</v>
+        <v>1.057062999444251</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000876784127532</v>
+        <v>1.035647337271497</v>
       </c>
       <c r="D10">
-        <v>1.023587803583774</v>
+        <v>1.0441291327737</v>
       </c>
       <c r="E10">
-        <v>1.008317512401042</v>
+        <v>1.03474621353605</v>
       </c>
       <c r="F10">
-        <v>1.026352604314119</v>
+        <v>1.052724472659743</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04948831964962</v>
+        <v>1.043219603827966</v>
       </c>
       <c r="J10">
-        <v>1.029055658314305</v>
+        <v>1.041981669605892</v>
       </c>
       <c r="K10">
-        <v>1.037543844525811</v>
+        <v>1.047545936146493</v>
       </c>
       <c r="L10">
-        <v>1.022538198130305</v>
+        <v>1.038196297730836</v>
       </c>
       <c r="M10">
-        <v>1.040261815572899</v>
+        <v>1.056111361924702</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9979065258350998</v>
+        <v>1.035080479736297</v>
       </c>
       <c r="D11">
-        <v>1.021358592124662</v>
+        <v>1.043686353520094</v>
       </c>
       <c r="E11">
-        <v>1.005994622983829</v>
+        <v>1.034267763660728</v>
       </c>
       <c r="F11">
-        <v>1.023741885512876</v>
+        <v>1.052191450069494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048415659537542</v>
+        <v>1.043055934115908</v>
       </c>
       <c r="J11">
-        <v>1.027366655862782</v>
+        <v>1.041648257454574</v>
       </c>
       <c r="K11">
-        <v>1.035888652489483</v>
+        <v>1.04722519443128</v>
       </c>
       <c r="L11">
-        <v>1.020804368081317</v>
+        <v>1.037841300805957</v>
       </c>
       <c r="M11">
-        <v>1.038229536382218</v>
+        <v>1.055699549115976</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9967915753063964</v>
+        <v>1.034870040429723</v>
       </c>
       <c r="D12">
-        <v>1.020522621913515</v>
+        <v>1.043521983972395</v>
       </c>
       <c r="E12">
-        <v>1.005124020054255</v>
+        <v>1.034090217987622</v>
       </c>
       <c r="F12">
-        <v>1.022763042432946</v>
+        <v>1.051993623589091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048011463241179</v>
+        <v>1.042994960819238</v>
       </c>
       <c r="J12">
-        <v>1.02673234487376</v>
+        <v>1.041524406850413</v>
       </c>
       <c r="K12">
-        <v>1.035266927042769</v>
+        <v>1.047106027042032</v>
       </c>
       <c r="L12">
-        <v>1.020153705965799</v>
+        <v>1.037709485516043</v>
       </c>
       <c r="M12">
-        <v>1.037466757089909</v>
+        <v>1.055546623027903</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.99703127301466</v>
+        <v>1.034915175063435</v>
       </c>
       <c r="D13">
-        <v>1.02070230532543</v>
+        <v>1.043557237317762</v>
       </c>
       <c r="E13">
-        <v>1.005311125082178</v>
+        <v>1.034128294328538</v>
       </c>
       <c r="F13">
-        <v>1.022973426365098</v>
+        <v>1.052036050685858</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04809842869886</v>
+        <v>1.043008047888995</v>
       </c>
       <c r="J13">
-        <v>1.02686872550767</v>
+        <v>1.041550973498482</v>
       </c>
       <c r="K13">
-        <v>1.0354006066295</v>
+        <v>1.047131590171572</v>
       </c>
       <c r="L13">
-        <v>1.02029358029466</v>
+        <v>1.037737758222551</v>
       </c>
       <c r="M13">
-        <v>1.037630738753676</v>
+        <v>1.055579424378842</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9978146049231204</v>
+        <v>1.035063082365266</v>
       </c>
       <c r="D14">
-        <v>1.021289654577335</v>
+        <v>1.043672764664746</v>
       </c>
       <c r="E14">
-        <v>1.005922819414284</v>
+        <v>1.034253084162497</v>
       </c>
       <c r="F14">
-        <v>1.02366116220077</v>
+        <v>1.05217509435817</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048382367251535</v>
+        <v>1.043050897692634</v>
       </c>
       <c r="J14">
-        <v>1.02731436678703</v>
+        <v>1.041638020049944</v>
       </c>
       <c r="K14">
-        <v>1.035837403122556</v>
+        <v>1.047215344614683</v>
       </c>
       <c r="L14">
-        <v>1.020750721260756</v>
+        <v>1.03783040395899</v>
       </c>
       <c r="M14">
-        <v>1.038166647911583</v>
+        <v>1.055686907382352</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9982956789159229</v>
+        <v>1.035154228462925</v>
       </c>
       <c r="D15">
-        <v>1.021650477147124</v>
+        <v>1.04374395796593</v>
       </c>
       <c r="E15">
-        <v>1.006298663122822</v>
+        <v>1.034329994132415</v>
       </c>
       <c r="F15">
-        <v>1.024083679921113</v>
+        <v>1.052260785257347</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04855654162908</v>
+        <v>1.043077275165538</v>
       </c>
       <c r="J15">
-        <v>1.027588012719909</v>
+        <v>1.04169165148184</v>
       </c>
       <c r="K15">
-        <v>1.036105603400657</v>
+        <v>1.047266944603561</v>
       </c>
       <c r="L15">
-        <v>1.02103149246251</v>
+        <v>1.037887492241121</v>
       </c>
       <c r="M15">
-        <v>1.038495782355617</v>
+        <v>1.055753136493127</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001072305554205</v>
+        <v>1.035684974034667</v>
       </c>
       <c r="D16">
-        <v>1.023734654054099</v>
+        <v>1.044158532273405</v>
       </c>
       <c r="E16">
-        <v>1.008470603484825</v>
+        <v>1.034777990687135</v>
       </c>
       <c r="F16">
-        <v>1.026524614726572</v>
+        <v>1.05275987020338</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049558711250948</v>
+        <v>1.043230440890043</v>
       </c>
       <c r="J16">
-        <v>1.029166794415469</v>
+        <v>1.042003796092852</v>
       </c>
       <c r="K16">
-        <v>1.037652739866811</v>
+        <v>1.047567218489994</v>
       </c>
       <c r="L16">
-        <v>1.02265235097621</v>
+        <v>1.038219864135357</v>
       </c>
       <c r="M16">
-        <v>1.040395601544681</v>
+        <v>1.05613869804028</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002793825875239</v>
+        <v>1.036018103180594</v>
       </c>
       <c r="D17">
-        <v>1.025028216247883</v>
+        <v>1.044418757184731</v>
       </c>
       <c r="E17">
-        <v>1.009819520227812</v>
+        <v>1.03505931148521</v>
       </c>
       <c r="F17">
-        <v>1.02803996131336</v>
+        <v>1.053073219325814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050177287020527</v>
+        <v>1.043326197709186</v>
       </c>
       <c r="J17">
-        <v>1.030145063225545</v>
+        <v>1.042199583231984</v>
       </c>
       <c r="K17">
-        <v>1.038611193876197</v>
+        <v>1.0477555181457</v>
       </c>
       <c r="L17">
-        <v>1.02365754073123</v>
+        <v>1.038428433401537</v>
       </c>
       <c r="M17">
-        <v>1.041573583788783</v>
+        <v>1.056380619338975</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003790860402792</v>
+        <v>1.03621248567502</v>
       </c>
       <c r="D18">
-        <v>1.025777867012463</v>
+        <v>1.044570603891076</v>
       </c>
       <c r="E18">
-        <v>1.01060157088788</v>
+        <v>1.035223510261544</v>
       </c>
       <c r="F18">
-        <v>1.028918275772269</v>
+        <v>1.053256093130611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050534527928987</v>
+        <v>1.043381935460405</v>
       </c>
       <c r="J18">
-        <v>1.030711414630216</v>
+        <v>1.042313777489123</v>
       </c>
       <c r="K18">
-        <v>1.039165996810379</v>
+        <v>1.047865330187814</v>
       </c>
       <c r="L18">
-        <v>1.024239782663996</v>
+        <v>1.038550117131249</v>
       </c>
       <c r="M18">
-        <v>1.042255838056806</v>
+        <v>1.056521752197331</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004129635418118</v>
+        <v>1.036278777568811</v>
       </c>
       <c r="D19">
-        <v>1.026032663674776</v>
+        <v>1.04462239014202</v>
       </c>
       <c r="E19">
-        <v>1.010867434476129</v>
+        <v>1.03527951625328</v>
       </c>
       <c r="F19">
-        <v>1.029216826790184</v>
+        <v>1.053318465709677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050655738998943</v>
+        <v>1.043400920963964</v>
       </c>
       <c r="J19">
-        <v>1.030903812177146</v>
+        <v>1.04235271388129</v>
       </c>
       <c r="K19">
-        <v>1.03935445785154</v>
+        <v>1.047902769830743</v>
       </c>
       <c r="L19">
-        <v>1.024437630172942</v>
+        <v>1.038591612982489</v>
       </c>
       <c r="M19">
-        <v>1.0424876572281</v>
+        <v>1.056569878921084</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00260986120162</v>
+        <v>1.0359823539207</v>
       </c>
       <c r="D20">
-        <v>1.024889934538825</v>
+        <v>1.044390831097134</v>
       </c>
       <c r="E20">
-        <v>1.009675287935486</v>
+        <v>1.035029117126621</v>
       </c>
       <c r="F20">
-        <v>1.027877957055227</v>
+        <v>1.053039589307914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050111289674873</v>
+        <v>1.043315935857998</v>
       </c>
       <c r="J20">
-        <v>1.030040546467508</v>
+        <v>1.042178577639949</v>
       </c>
       <c r="K20">
-        <v>1.038508802031292</v>
+        <v>1.047735317429927</v>
       </c>
       <c r="L20">
-        <v>1.023550116120857</v>
+        <v>1.038406052903733</v>
       </c>
       <c r="M20">
-        <v>1.041447700641564</v>
+        <v>1.056354660952591</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9975842597776572</v>
+        <v>1.035019524113781</v>
       </c>
       <c r="D21">
-        <v>1.02111691687631</v>
+        <v>1.04363874201038</v>
       </c>
       <c r="E21">
-        <v>1.005742908270069</v>
+        <v>1.034216331906437</v>
       </c>
       <c r="F21">
-        <v>1.023458895849245</v>
+        <v>1.052134144979046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048298915100582</v>
+        <v>1.043038284430387</v>
       </c>
       <c r="J21">
-        <v>1.027183330471408</v>
+        <v>1.041612387178934</v>
       </c>
       <c r="K21">
-        <v>1.035708970539911</v>
+        <v>1.047190681826268</v>
       </c>
       <c r="L21">
-        <v>1.020616290242811</v>
+        <v>1.037803120807532</v>
       </c>
       <c r="M21">
-        <v>1.038009056805851</v>
+        <v>1.055655255212933</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9943566811384084</v>
+        <v>1.034414831479086</v>
       </c>
       <c r="D22">
-        <v>1.018698542195236</v>
+        <v>1.04316644383893</v>
       </c>
       <c r="E22">
-        <v>1.003225276342803</v>
+        <v>1.033706297117698</v>
       </c>
       <c r="F22">
-        <v>1.020627556696386</v>
+        <v>1.051565793521597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047125959179813</v>
+        <v>1.042862678268857</v>
       </c>
       <c r="J22">
-        <v>1.025346579047351</v>
+        <v>1.041256363868723</v>
       </c>
       <c r="K22">
-        <v>1.033908460580774</v>
+        <v>1.046848076994051</v>
       </c>
       <c r="L22">
-        <v>1.018733109509984</v>
+        <v>1.037424302456547</v>
       </c>
       <c r="M22">
-        <v>1.035801161726581</v>
+        <v>1.055215740530317</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9960742992368226</v>
+        <v>1.0347353258142</v>
       </c>
       <c r="D23">
-        <v>1.019985057549825</v>
+        <v>1.043416763403466</v>
       </c>
       <c r="E23">
-        <v>1.004564324437241</v>
+        <v>1.03397658123651</v>
       </c>
       <c r="F23">
-        <v>1.022133657783118</v>
+        <v>1.051866997887931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04775100260823</v>
+        <v>1.042955868318053</v>
       </c>
       <c r="J23">
-        <v>1.02632419487182</v>
+        <v>1.041445101633601</v>
       </c>
       <c r="K23">
-        <v>1.034866844810109</v>
+        <v>1.047029714051478</v>
       </c>
       <c r="L23">
-        <v>1.019735171327648</v>
+        <v>1.037625095275227</v>
       </c>
       <c r="M23">
-        <v>1.036976071057953</v>
+        <v>1.055448713298895</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002693008817771</v>
+        <v>1.035998507244282</v>
       </c>
       <c r="D24">
-        <v>1.024952433092668</v>
+        <v>1.044403449502964</v>
       </c>
       <c r="E24">
-        <v>1.009740474953309</v>
+        <v>1.035042760320654</v>
       </c>
       <c r="F24">
-        <v>1.027951176964331</v>
+        <v>1.053054784948757</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05014112203411</v>
+        <v>1.043320573104055</v>
       </c>
       <c r="J24">
-        <v>1.030087786224421</v>
+        <v>1.04218806917863</v>
       </c>
       <c r="K24">
-        <v>1.038555081603932</v>
+        <v>1.047744445325692</v>
       </c>
       <c r="L24">
-        <v>1.023598669230639</v>
+        <v>1.0384161655985</v>
       </c>
       <c r="M24">
-        <v>1.041504596759882</v>
+        <v>1.056366390355275</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010096847480737</v>
+        <v>1.037467252191233</v>
       </c>
       <c r="D25">
-        <v>1.03052709282329</v>
+        <v>1.045550866266181</v>
       </c>
       <c r="E25">
-        <v>1.015561853694535</v>
+        <v>1.036284275545517</v>
       </c>
       <c r="F25">
-        <v>1.034485153918645</v>
+        <v>1.054437162046645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052775507936274</v>
+        <v>1.043739255752403</v>
       </c>
       <c r="J25">
-        <v>1.034289125634703</v>
+        <v>1.043050038212056</v>
       </c>
       <c r="K25">
-        <v>1.042669302127291</v>
+        <v>1.04857306339714</v>
       </c>
       <c r="L25">
-        <v>1.027923301295222</v>
+        <v>1.0393352836661</v>
       </c>
       <c r="M25">
-        <v>1.046570720421175</v>
+        <v>1.057432249334854</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_213/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038640994678112</v>
+        <v>1.015797379279255</v>
       </c>
       <c r="D2">
-        <v>1.046467931157318</v>
+        <v>1.034831724017685</v>
       </c>
       <c r="E2">
-        <v>1.037277884794242</v>
+        <v>1.020067215470331</v>
       </c>
       <c r="F2">
-        <v>1.05554291047988</v>
+        <v>1.039535260287281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044069507245682</v>
+        <v>1.054770882932433</v>
       </c>
       <c r="J2">
-        <v>1.043737331682886</v>
+        <v>1.037515645707205</v>
       </c>
       <c r="K2">
-        <v>1.04923328360805</v>
+        <v>1.045826223115898</v>
       </c>
       <c r="L2">
-        <v>1.040069226611013</v>
+        <v>1.031253885725733</v>
       </c>
       <c r="M2">
-        <v>1.058283080269713</v>
+        <v>1.050469970578384</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039494528143958</v>
+        <v>1.019826135130162</v>
       </c>
       <c r="D3">
-        <v>1.047134865242459</v>
+        <v>1.037880245954266</v>
       </c>
       <c r="E3">
-        <v>1.038001261542631</v>
+        <v>1.023263943737865</v>
       </c>
       <c r="F3">
-        <v>1.056347585341504</v>
+        <v>1.043114698981192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044307145050531</v>
+        <v>1.056161282757562</v>
       </c>
       <c r="J3">
-        <v>1.044236222902161</v>
+        <v>1.039790533585051</v>
       </c>
       <c r="K3">
-        <v>1.049712242374992</v>
+        <v>1.048050340848479</v>
       </c>
       <c r="L3">
-        <v>1.040602606856677</v>
+        <v>1.033607565735313</v>
       </c>
       <c r="M3">
-        <v>1.058901239591474</v>
+        <v>1.053224110651603</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040047410332944</v>
+        <v>1.022384533855396</v>
       </c>
       <c r="D4">
-        <v>1.047566897909925</v>
+        <v>1.039818791472252</v>
       </c>
       <c r="E4">
-        <v>1.038470216357446</v>
+        <v>1.025299578818657</v>
       </c>
       <c r="F4">
-        <v>1.0568690870278</v>
+        <v>1.045392309619233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044459910944364</v>
+        <v>1.057034834356276</v>
       </c>
       <c r="J4">
-        <v>1.044558964392123</v>
+        <v>1.041232470257453</v>
       </c>
       <c r="K4">
-        <v>1.050021958790645</v>
+        <v>1.049459265568849</v>
       </c>
       <c r="L4">
-        <v>1.040947950140412</v>
+        <v>1.035101955810009</v>
       </c>
       <c r="M4">
-        <v>1.059301396817266</v>
+        <v>1.054972099190378</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04027998141337</v>
+        <v>1.023448841821818</v>
       </c>
       <c r="D5">
-        <v>1.047748638014806</v>
+        <v>1.040625827218178</v>
       </c>
       <c r="E5">
-        <v>1.038667574257091</v>
+        <v>1.026147723490999</v>
       </c>
       <c r="F5">
-        <v>1.057088521517427</v>
+        <v>1.04634086283592</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044523893106046</v>
+        <v>1.057395946310313</v>
       </c>
       <c r="J5">
-        <v>1.044694625813416</v>
+        <v>1.041831648732711</v>
       </c>
       <c r="K5">
-        <v>1.050152113925172</v>
+        <v>1.05004452021731</v>
       </c>
       <c r="L5">
-        <v>1.041093181513329</v>
+        <v>1.035723533989966</v>
       </c>
       <c r="M5">
-        <v>1.059469661278389</v>
+        <v>1.055698999759422</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04031903924992</v>
+        <v>1.023626894767481</v>
       </c>
       <c r="D6">
-        <v>1.047779159587002</v>
+        <v>1.040760873444174</v>
       </c>
       <c r="E6">
-        <v>1.038700723738194</v>
+        <v>1.026289689453076</v>
       </c>
       <c r="F6">
-        <v>1.057125376923871</v>
+        <v>1.046499611619878</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044534621858596</v>
+        <v>1.057456222752914</v>
       </c>
       <c r="J6">
-        <v>1.044717402806023</v>
+        <v>1.041931847542007</v>
       </c>
       <c r="K6">
-        <v>1.050173964595776</v>
+        <v>1.050142378276744</v>
       </c>
       <c r="L6">
-        <v>1.041117569336995</v>
+        <v>1.035827514134713</v>
       </c>
       <c r="M6">
-        <v>1.059497915825776</v>
+        <v>1.055820589247599</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040050517413311</v>
+        <v>1.022398798898208</v>
       </c>
       <c r="D7">
-        <v>1.047569325886047</v>
+        <v>1.039829605988228</v>
       </c>
       <c r="E7">
-        <v>1.038472852643214</v>
+        <v>1.025310941475116</v>
       </c>
       <c r="F7">
-        <v>1.056872018357656</v>
+        <v>1.045405019069209</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044460766823637</v>
+        <v>1.057039683471145</v>
       </c>
       <c r="J7">
-        <v>1.044560777183318</v>
+        <v>1.041240503818783</v>
       </c>
       <c r="K7">
-        <v>1.050023698126634</v>
+        <v>1.049467113267788</v>
       </c>
       <c r="L7">
-        <v>1.040949890538076</v>
+        <v>1.035110287313221</v>
       </c>
       <c r="M7">
-        <v>1.059303645026461</v>
+        <v>1.054981843044681</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038929327403362</v>
+        <v>1.017169176663746</v>
       </c>
       <c r="D8">
-        <v>1.046693223857837</v>
+        <v>1.035869174452344</v>
       </c>
       <c r="E8">
-        <v>1.037522169722768</v>
+        <v>1.021154511112076</v>
       </c>
       <c r="F8">
-        <v>1.055814682513331</v>
+        <v>1.040753090763481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044150024959647</v>
+        <v>1.055246263421495</v>
       </c>
       <c r="J8">
-        <v>1.043905948967054</v>
+        <v>1.038290795442174</v>
       </c>
       <c r="K8">
-        <v>1.049395190993966</v>
+        <v>1.04658424356303</v>
       </c>
       <c r="L8">
-        <v>1.040249440538164</v>
+        <v>1.032055357117044</v>
       </c>
       <c r="M8">
-        <v>1.058491954623183</v>
+        <v>1.051407943528458</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036958228503736</v>
+        <v>1.007565546484141</v>
       </c>
       <c r="D9">
-        <v>1.045153186975931</v>
+        <v>1.028619076632042</v>
       </c>
       <c r="E9">
-        <v>1.035853776398905</v>
+        <v>1.013567803969389</v>
       </c>
       <c r="F9">
-        <v>1.053957910967526</v>
+        <v>1.032248088887221</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043594822964747</v>
+        <v>1.051879929012485</v>
       </c>
       <c r="J9">
-        <v>1.042751543562724</v>
+        <v>1.032853945604891</v>
       </c>
       <c r="K9">
-        <v>1.048286192167221</v>
+        <v>1.041264287620442</v>
       </c>
       <c r="L9">
-        <v>1.039016831250581</v>
+        <v>1.026444522620658</v>
       </c>
       <c r="M9">
-        <v>1.057062999444251</v>
+        <v>1.044838766425153</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035647337271497</v>
+        <v>1.000876784127532</v>
       </c>
       <c r="D10">
-        <v>1.0441291327737</v>
+        <v>1.023587803583774</v>
       </c>
       <c r="E10">
-        <v>1.03474621353605</v>
+        <v>1.008317512401042</v>
       </c>
       <c r="F10">
-        <v>1.052724472659743</v>
+        <v>1.026352604314119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043219603827966</v>
+        <v>1.04948831964962</v>
       </c>
       <c r="J10">
-        <v>1.041981669605892</v>
+        <v>1.029055658314304</v>
       </c>
       <c r="K10">
-        <v>1.047545936146493</v>
+        <v>1.03754384452581</v>
       </c>
       <c r="L10">
-        <v>1.038196297730836</v>
+        <v>1.022538198130304</v>
       </c>
       <c r="M10">
-        <v>1.056111361924702</v>
+        <v>1.040261815572899</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035080479736297</v>
+        <v>0.9979065258350992</v>
       </c>
       <c r="D11">
-        <v>1.043686353520094</v>
+        <v>1.021358592124662</v>
       </c>
       <c r="E11">
-        <v>1.034267763660728</v>
+        <v>1.005994622983829</v>
       </c>
       <c r="F11">
-        <v>1.052191450069494</v>
+        <v>1.023741885512875</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043055934115908</v>
+        <v>1.048415659537542</v>
       </c>
       <c r="J11">
-        <v>1.041648257454574</v>
+        <v>1.027366655862781</v>
       </c>
       <c r="K11">
-        <v>1.04722519443128</v>
+        <v>1.035888652489482</v>
       </c>
       <c r="L11">
-        <v>1.037841300805957</v>
+        <v>1.020804368081316</v>
       </c>
       <c r="M11">
-        <v>1.055699549115976</v>
+        <v>1.038229536382218</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034870040429723</v>
+        <v>0.9967915753063964</v>
       </c>
       <c r="D12">
-        <v>1.043521983972395</v>
+        <v>1.020522621913515</v>
       </c>
       <c r="E12">
-        <v>1.034090217987622</v>
+        <v>1.005124020054255</v>
       </c>
       <c r="F12">
-        <v>1.051993623589091</v>
+        <v>1.022763042432946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042994960819238</v>
+        <v>1.048011463241179</v>
       </c>
       <c r="J12">
-        <v>1.041524406850413</v>
+        <v>1.02673234487376</v>
       </c>
       <c r="K12">
-        <v>1.047106027042032</v>
+        <v>1.035266927042769</v>
       </c>
       <c r="L12">
-        <v>1.037709485516043</v>
+        <v>1.020153705965799</v>
       </c>
       <c r="M12">
-        <v>1.055546623027903</v>
+        <v>1.037466757089909</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034915175063435</v>
+        <v>0.99703127301466</v>
       </c>
       <c r="D13">
-        <v>1.043557237317762</v>
+        <v>1.020702305325431</v>
       </c>
       <c r="E13">
-        <v>1.034128294328538</v>
+        <v>1.005311125082178</v>
       </c>
       <c r="F13">
-        <v>1.052036050685858</v>
+        <v>1.022973426365098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043008047888995</v>
+        <v>1.04809842869886</v>
       </c>
       <c r="J13">
-        <v>1.041550973498482</v>
+        <v>1.02686872550767</v>
       </c>
       <c r="K13">
-        <v>1.047131590171572</v>
+        <v>1.0354006066295</v>
       </c>
       <c r="L13">
-        <v>1.037737758222551</v>
+        <v>1.02029358029466</v>
       </c>
       <c r="M13">
-        <v>1.055579424378842</v>
+        <v>1.037630738753676</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035063082365266</v>
+        <v>0.9978146049231205</v>
       </c>
       <c r="D14">
-        <v>1.043672764664746</v>
+        <v>1.021289654577335</v>
       </c>
       <c r="E14">
-        <v>1.034253084162497</v>
+        <v>1.005922819414285</v>
       </c>
       <c r="F14">
-        <v>1.05217509435817</v>
+        <v>1.02366116220077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043050897692634</v>
+        <v>1.048382367251535</v>
       </c>
       <c r="J14">
-        <v>1.041638020049944</v>
+        <v>1.02731436678703</v>
       </c>
       <c r="K14">
-        <v>1.047215344614683</v>
+        <v>1.035837403122556</v>
       </c>
       <c r="L14">
-        <v>1.03783040395899</v>
+        <v>1.020750721260756</v>
       </c>
       <c r="M14">
-        <v>1.055686907382352</v>
+        <v>1.038166647911583</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035154228462925</v>
+        <v>0.9982956789159222</v>
       </c>
       <c r="D15">
-        <v>1.04374395796593</v>
+        <v>1.021650477147123</v>
       </c>
       <c r="E15">
-        <v>1.034329994132415</v>
+        <v>1.006298663122822</v>
       </c>
       <c r="F15">
-        <v>1.052260785257347</v>
+        <v>1.024083679921112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043077275165538</v>
+        <v>1.048556541629079</v>
       </c>
       <c r="J15">
-        <v>1.04169165148184</v>
+        <v>1.027588012719908</v>
       </c>
       <c r="K15">
-        <v>1.047266944603561</v>
+        <v>1.036105603400656</v>
       </c>
       <c r="L15">
-        <v>1.037887492241121</v>
+        <v>1.02103149246251</v>
       </c>
       <c r="M15">
-        <v>1.055753136493127</v>
+        <v>1.038495782355617</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035684974034667</v>
+        <v>1.001072305554205</v>
       </c>
       <c r="D16">
-        <v>1.044158532273405</v>
+        <v>1.023734654054099</v>
       </c>
       <c r="E16">
-        <v>1.034777990687135</v>
+        <v>1.008470603484825</v>
       </c>
       <c r="F16">
-        <v>1.05275987020338</v>
+        <v>1.026524614726571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043230440890043</v>
+        <v>1.049558711250947</v>
       </c>
       <c r="J16">
-        <v>1.042003796092852</v>
+        <v>1.029166794415468</v>
       </c>
       <c r="K16">
-        <v>1.047567218489994</v>
+        <v>1.03765273986681</v>
       </c>
       <c r="L16">
-        <v>1.038219864135357</v>
+        <v>1.02265235097621</v>
       </c>
       <c r="M16">
-        <v>1.05613869804028</v>
+        <v>1.040395601544681</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036018103180594</v>
+        <v>1.002793825875239</v>
       </c>
       <c r="D17">
-        <v>1.044418757184731</v>
+        <v>1.025028216247883</v>
       </c>
       <c r="E17">
-        <v>1.03505931148521</v>
+        <v>1.009819520227811</v>
       </c>
       <c r="F17">
-        <v>1.053073219325814</v>
+        <v>1.02803996131336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043326197709186</v>
+        <v>1.050177287020527</v>
       </c>
       <c r="J17">
-        <v>1.042199583231984</v>
+        <v>1.030145063225545</v>
       </c>
       <c r="K17">
-        <v>1.0477555181457</v>
+        <v>1.038611193876197</v>
       </c>
       <c r="L17">
-        <v>1.038428433401537</v>
+        <v>1.023657540731229</v>
       </c>
       <c r="M17">
-        <v>1.056380619338975</v>
+        <v>1.041573583788783</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03621248567502</v>
+        <v>1.003790860402792</v>
       </c>
       <c r="D18">
-        <v>1.044570603891076</v>
+        <v>1.025777867012463</v>
       </c>
       <c r="E18">
-        <v>1.035223510261544</v>
+        <v>1.01060157088788</v>
       </c>
       <c r="F18">
-        <v>1.053256093130611</v>
+        <v>1.02891827577227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043381935460405</v>
+        <v>1.050534527928987</v>
       </c>
       <c r="J18">
-        <v>1.042313777489123</v>
+        <v>1.030711414630217</v>
       </c>
       <c r="K18">
-        <v>1.047865330187814</v>
+        <v>1.039165996810379</v>
       </c>
       <c r="L18">
-        <v>1.038550117131249</v>
+        <v>1.024239782663996</v>
       </c>
       <c r="M18">
-        <v>1.056521752197331</v>
+        <v>1.042255838056806</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036278777568811</v>
+        <v>1.004129635418118</v>
       </c>
       <c r="D19">
-        <v>1.04462239014202</v>
+        <v>1.026032663674776</v>
       </c>
       <c r="E19">
-        <v>1.03527951625328</v>
+        <v>1.010867434476129</v>
       </c>
       <c r="F19">
-        <v>1.053318465709677</v>
+        <v>1.029216826790183</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043400920963964</v>
+        <v>1.050655738998943</v>
       </c>
       <c r="J19">
-        <v>1.04235271388129</v>
+        <v>1.030903812177146</v>
       </c>
       <c r="K19">
-        <v>1.047902769830743</v>
+        <v>1.03935445785154</v>
       </c>
       <c r="L19">
-        <v>1.038591612982489</v>
+        <v>1.024437630172942</v>
       </c>
       <c r="M19">
-        <v>1.056569878921084</v>
+        <v>1.042487657228099</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0359823539207</v>
+        <v>1.00260986120162</v>
       </c>
       <c r="D20">
-        <v>1.044390831097134</v>
+        <v>1.024889934538824</v>
       </c>
       <c r="E20">
-        <v>1.035029117126621</v>
+        <v>1.009675287935486</v>
       </c>
       <c r="F20">
-        <v>1.053039589307914</v>
+        <v>1.027877957055228</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043315935857998</v>
+        <v>1.050111289674873</v>
       </c>
       <c r="J20">
-        <v>1.042178577639949</v>
+        <v>1.030040546467508</v>
       </c>
       <c r="K20">
-        <v>1.047735317429927</v>
+        <v>1.038508802031292</v>
       </c>
       <c r="L20">
-        <v>1.038406052903733</v>
+        <v>1.023550116120857</v>
       </c>
       <c r="M20">
-        <v>1.056354660952591</v>
+        <v>1.041447700641564</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035019524113781</v>
+        <v>0.9975842597776572</v>
       </c>
       <c r="D21">
-        <v>1.04363874201038</v>
+        <v>1.02111691687631</v>
       </c>
       <c r="E21">
-        <v>1.034216331906437</v>
+        <v>1.005742908270069</v>
       </c>
       <c r="F21">
-        <v>1.052134144979046</v>
+        <v>1.023458895849245</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043038284430387</v>
+        <v>1.048298915100582</v>
       </c>
       <c r="J21">
-        <v>1.041612387178934</v>
+        <v>1.027183330471408</v>
       </c>
       <c r="K21">
-        <v>1.047190681826268</v>
+        <v>1.035708970539911</v>
       </c>
       <c r="L21">
-        <v>1.037803120807532</v>
+        <v>1.020616290242811</v>
       </c>
       <c r="M21">
-        <v>1.055655255212933</v>
+        <v>1.038009056805851</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034414831479086</v>
+        <v>0.9943566811384084</v>
       </c>
       <c r="D22">
-        <v>1.04316644383893</v>
+        <v>1.018698542195236</v>
       </c>
       <c r="E22">
-        <v>1.033706297117698</v>
+        <v>1.003225276342803</v>
       </c>
       <c r="F22">
-        <v>1.051565793521597</v>
+        <v>1.020627556696386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042862678268857</v>
+        <v>1.047125959179813</v>
       </c>
       <c r="J22">
-        <v>1.041256363868723</v>
+        <v>1.025346579047351</v>
       </c>
       <c r="K22">
-        <v>1.046848076994051</v>
+        <v>1.033908460580774</v>
       </c>
       <c r="L22">
-        <v>1.037424302456547</v>
+        <v>1.018733109509984</v>
       </c>
       <c r="M22">
-        <v>1.055215740530317</v>
+        <v>1.035801161726581</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0347353258142</v>
+        <v>0.9960742992368223</v>
       </c>
       <c r="D23">
-        <v>1.043416763403466</v>
+        <v>1.019985057549824</v>
       </c>
       <c r="E23">
-        <v>1.03397658123651</v>
+        <v>1.00456432443724</v>
       </c>
       <c r="F23">
-        <v>1.051866997887931</v>
+        <v>1.022133657783118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042955868318053</v>
+        <v>1.04775100260823</v>
       </c>
       <c r="J23">
-        <v>1.041445101633601</v>
+        <v>1.02632419487182</v>
       </c>
       <c r="K23">
-        <v>1.047029714051478</v>
+        <v>1.034866844810108</v>
       </c>
       <c r="L23">
-        <v>1.037625095275227</v>
+        <v>1.019735171327647</v>
       </c>
       <c r="M23">
-        <v>1.055448713298895</v>
+        <v>1.036976071057953</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035998507244282</v>
+        <v>1.002693008817771</v>
       </c>
       <c r="D24">
-        <v>1.044403449502964</v>
+        <v>1.024952433092668</v>
       </c>
       <c r="E24">
-        <v>1.035042760320654</v>
+        <v>1.009740474953309</v>
       </c>
       <c r="F24">
-        <v>1.053054784948757</v>
+        <v>1.02795117696433</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043320573104055</v>
+        <v>1.050141122034109</v>
       </c>
       <c r="J24">
-        <v>1.04218806917863</v>
+        <v>1.030087786224421</v>
       </c>
       <c r="K24">
-        <v>1.047744445325692</v>
+        <v>1.038555081603932</v>
       </c>
       <c r="L24">
-        <v>1.0384161655985</v>
+        <v>1.023598669230638</v>
       </c>
       <c r="M24">
-        <v>1.056366390355275</v>
+        <v>1.041504596759881</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037467252191233</v>
+        <v>1.010096847480736</v>
       </c>
       <c r="D25">
-        <v>1.045550866266181</v>
+        <v>1.030527092823289</v>
       </c>
       <c r="E25">
-        <v>1.036284275545517</v>
+        <v>1.015561853694534</v>
       </c>
       <c r="F25">
-        <v>1.054437162046645</v>
+        <v>1.034485153918644</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043739255752403</v>
+        <v>1.052775507936274</v>
       </c>
       <c r="J25">
-        <v>1.043050038212056</v>
+        <v>1.034289125634702</v>
       </c>
       <c r="K25">
-        <v>1.04857306339714</v>
+        <v>1.04266930212729</v>
       </c>
       <c r="L25">
-        <v>1.0393352836661</v>
+        <v>1.027923301295221</v>
       </c>
       <c r="M25">
-        <v>1.057432249334854</v>
+        <v>1.046570720421174</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
